--- a/genre/Genre par trimestre.xlsx
+++ b/genre/Genre par trimestre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\genre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D6A6F-1BA4-42DE-825F-D1B6BFF29D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93FDDF9-B377-43B4-B149-E20EE14521C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FF9CC30C-2AD5-419B-9546-2424673E3F3C}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,16 +487,16 @@
         <v>4039</v>
       </c>
       <c r="C3">
-        <v>18677</v>
+        <v>18676</v>
       </c>
       <c r="D3">
-        <v>22716</v>
+        <v>22715</v>
       </c>
       <c r="E3" s="2">
-        <v>17.780419087867578</v>
+        <v>17.78120184899846</v>
       </c>
       <c r="F3" s="2">
-        <v>82.219580912132415</v>
+        <v>82.218798151001536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -504,19 +504,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2064</v>
+        <v>2890</v>
       </c>
       <c r="C4">
-        <v>9093</v>
+        <v>13830</v>
       </c>
       <c r="D4">
-        <v>11157</v>
+        <v>16720</v>
       </c>
       <c r="E4" s="2">
-        <v>18.499596665770369</v>
+        <v>17.284688995215308</v>
       </c>
       <c r="F4" s="2">
-        <v>81.500403334229631</v>
+        <v>82.715311004784681</v>
       </c>
     </row>
   </sheetData>
